--- a/Vertailun työnjako.xlsx
+++ b/Vertailun työnjako.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elo365-my.sharepoint.com/personal/jan_parttimaa_elo_fi/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1602738\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Työnjako!$A$1:$B$28</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,8 @@
 2. Jokainen käy lopuksi kirjaamassa tulokset WordPress-taulukkoon, jonka Jan voi tehdä valmiiksi.
 3. Kun kaikki on omat kohdat käynyt läpi, katsotaan yhdessä tuloksia, muistiinpanoja ja analyysejä.
 4. Valitaan paras vaihtoehto!
-Muistetaan kysyä Terolta ensi kerralla (3.10.2018) laitetaanko blogiin kaikki omat muistiinpanot vai ei.</t>
+Muistetaan kysyä Terolta ensi kerralla (3.10.2018) laitetaanko blogiin kaikki omat muistiinpanot vai ei.
+Keltaisella pohjalla olevat vaatimukset on käyty läpi.</t>
         </r>
       </text>
     </comment>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>IdM-järjestelmä pyörii Linux-palvelimella</t>
   </si>
@@ -212,7 +213,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -299,6 +306,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -615,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,118 +725,120 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
+    <row r="22" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
+      <c r="A24" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -831,33 +846,25 @@
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
+    <row r="27" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>4</v>
+      <c r="A28" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Vertailun työnjako.xlsx
+++ b/Vertailun työnjako.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1602738\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1503898\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,9 +134,6 @@
     <t>Google Trends</t>
   </si>
   <si>
-    <t>Google Scholar</t>
-  </si>
-  <si>
     <t>GitHub</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>LISÄTIETOJA: KLIKKAA TÄSTÄ!</t>
+  </si>
+  <si>
+    <t>Google Scholar - pois lukien patentit ja lainaukset. Hakusana: järjestelmän nimi + identity management system</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,23 +649,23 @@
         <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,15 +729,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -769,15 +769,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -825,31 +825,31 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
